--- a/internal/SdvkApp/TestSave.xlsx
+++ b/internal/SdvkApp/TestSave.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Артикул</t>
   </si>
@@ -97,31 +97,34 @@
     <t>Россия</t>
   </si>
   <si>
-    <t>//i.sdvk-oboi.ru//i/Milassa/Modern/177015.jpg</t>
+    <t>i.sdvk-oboi.ru//i/Milassa/Modern/177015.jpg</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Флизелин</t>
   </si>
   <si>
-    <t>[С рисунком Для гостинойДля коридораДля кухниДля прихожейДля спальни]</t>
-  </si>
-  <si>
-    <t>[С рисунком НеоклассикаСовременные]</t>
-  </si>
-  <si>
-    <t>[С рисунком 3d обоиШирокие]</t>
-  </si>
-  <si>
-    <t>[С рисунком Светлые]</t>
-  </si>
-  <si>
-    <t>[С рисунком]</t>
-  </si>
-  <si>
-    <t>[С рисунком Серый]</t>
-  </si>
-  <si>
-    <t>[//i.sdvk-oboi.ru/i/Milassa/Modern-3619/176983_thumb.jpg //i.sdvk-oboi.ru/i/Milassa/Modern-3619/176981_thumb.jpg //i.sdvk-oboi.ru/i/Milassa/Modern-3619/176979_thumb.jpg //i.sdvk-oboi.ru/i/Milassa/Modern-3619/176977_thumb.jpg //i.sdvk-oboi.ru/i/Milassa/Modern-3619/176982_thumb.jpg //i.sdvk-oboi.ru/i/Milassa/Modern-3619/176980_thumb.jpg //i.sdvk-oboi.ru/i/Milassa/Modern-3619/176978_thumb.jpg]</t>
+    <t>С рисунком;Для гостинойДля коридораДля кухниДля прихожейДля спальни</t>
+  </si>
+  <si>
+    <t>С рисунком;НеоклассикаСовременные</t>
+  </si>
+  <si>
+    <t>С рисунком;3d обоиШирокие</t>
+  </si>
+  <si>
+    <t>С рисунком;Светлые</t>
+  </si>
+  <si>
+    <t>С рисунком</t>
+  </si>
+  <si>
+    <t>С рисунком;Серый</t>
+  </si>
+  <si>
+    <t>i.sdvk-oboi.ru/i/Milassa/Modern-3619/176982_thumb.jpg;i.sdvk-oboi.ru/i/Milassa/Modern-3619/176980_thumb.jpg;i.sdvk-oboi.ru/i/Milassa/Modern-3619/176978_thumb.jpg;i.sdvk-oboi.ru/i/Milassa/Modern-3619/176983_thumb.jpg;i.sdvk-oboi.ru/i/Milassa/Modern-3619/176981_thumb.jpg;i.sdvk-oboi.ru/i/Milassa/Modern-3619/176979_thumb.jpg;i.sdvk-oboi.ru/i/Milassa/Modern-3619/176977_thumb.jpg</t>
   </si>
 </sst>
 </file>
@@ -524,46 +527,46 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
       </c>
       <c r="N2">
         <v>5600</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
